--- a/Results.xlsx
+++ b/Results.xlsx
@@ -421,7 +421,7 @@
         <v>arpitdev323@gmail.com</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
